--- a/datasets/experiments/research_compare.xlsx
+++ b/datasets/experiments/research_compare.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrc\uc3m\tfm-repo\datasets\aggregated\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrc\uc3m\tfm-repo\datasets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92863972-2D3C-49EF-BA97-48665F508B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCD32-6126-4117-A4B5-A0B8D1248486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9372" yWindow="4608" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{75C58647-540A-4D3B-B009-997B45683B1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{75C58647-540A-4D3B-B009-997B45683B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>EyeTell</t>
   </si>
@@ -327,91 +328,10 @@
     <t>Artificial light</t>
   </si>
   <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
     <t>18.4</t>
   </si>
   <si>
-    <t>17.6</t>
-  </si>
-  <si>
     <t>16.9</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>15.1</t>
   </si>
   <si>
     <t>Cost</t>
@@ -440,12 +360,6 @@
     </r>
   </si>
   <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
     <t>Histogram of Oriented Gradients</t>
   </si>
   <si>
@@ -540,13 +454,43 @@
   </si>
   <si>
     <t>keystroke (forced)</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gaze</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>predict_means</t>
+  </si>
+  <si>
+    <t>predict_std</t>
+  </si>
+  <si>
+    <t>accuracy_means</t>
+  </si>
+  <si>
+    <t>accuracy_std</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,19 +520,174 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -597,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,6 +725,88 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,122 +1355,122 @@
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1317,285 +1498,1916 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694FACA3-804F-4416-A782-8BA64889461D}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="54">
+        <v>13.68419617011169</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0.35643995104970649</v>
+      </c>
+      <c r="E3" s="55">
+        <v>3.3638300043114291</v>
+      </c>
+      <c r="F3" s="56">
+        <v>3.7154522260609509E-2</v>
+      </c>
+      <c r="G3" s="57">
+        <v>13.70657143459686</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0.30696626193381049</v>
+      </c>
+      <c r="I3" s="58">
+        <v>3.2743121780015341</v>
+      </c>
+      <c r="J3" s="59">
+        <v>2.1288679573072192E-2</v>
+      </c>
+      <c r="K3" s="54">
+        <v>13.299147418175361</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0.3403347948896171</v>
+      </c>
+      <c r="M3" s="55">
+        <v>3.3544079893422811</v>
+      </c>
+      <c r="N3" s="56">
+        <v>3.1639983123485281E-2</v>
+      </c>
+      <c r="O3" s="60">
+        <v>11.0494284980771</v>
+      </c>
+      <c r="P3" s="58">
+        <v>4.6021618055162652E-2</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>3.5896982824661832</v>
+      </c>
+      <c r="R3" s="59">
+        <v>6.907362017602176E-3</v>
+      </c>
+      <c r="S3" s="54">
+        <v>13.37750594438238</v>
+      </c>
+      <c r="T3" s="55">
+        <v>0.34315854089172032</v>
+      </c>
+      <c r="U3" s="55">
+        <v>3.455409117811135</v>
+      </c>
+      <c r="V3" s="56">
+        <v>2.4389117164180549E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" s="39">
+        <v>14.464005274503149</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.76944848160841917</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3.316043705391448</v>
+      </c>
+      <c r="F4" s="27">
+        <v>5.012622077502292E-2</v>
+      </c>
+      <c r="G4" s="47">
+        <v>14.97017445299962</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.39929270256664467</v>
+      </c>
+      <c r="I4" s="26">
+        <v>3.230899488560623</v>
+      </c>
+      <c r="J4" s="48">
+        <v>3.0856189909584279E-2</v>
+      </c>
+      <c r="K4" s="41">
+        <v>15.086002913096699</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.47090330621508192</v>
+      </c>
+      <c r="M4" s="25">
+        <v>3.232105441715631</v>
+      </c>
+      <c r="N4" s="27">
+        <v>3.3621747320795689E-2</v>
+      </c>
+      <c r="O4" s="47">
+        <v>10.55632133208359</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0.14871784203071811</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>3.6540125282695719</v>
+      </c>
+      <c r="R4" s="48">
+        <v>1.850002113290608E-2</v>
+      </c>
+      <c r="S4" s="39">
+        <v>12.6109651582442</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0.61456057183469459</v>
+      </c>
+      <c r="U4" s="25">
+        <v>3.521385315403069</v>
+      </c>
+      <c r="V4" s="27">
+        <v>3.45109381736661E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" s="40">
+        <v>13.305923108653269</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.3843904849166539</v>
+      </c>
+      <c r="E5" s="30">
+        <v>3.2980906015476692</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5.3347120029770538E-2</v>
+      </c>
+      <c r="G5" s="49">
+        <v>13.37610641164629</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0.51792100539832031</v>
+      </c>
+      <c r="I5" s="31">
+        <v>3.2447210160453182</v>
+      </c>
+      <c r="J5" s="50">
+        <v>5.0702041121843407E-2</v>
+      </c>
+      <c r="K5" s="40">
+        <v>13.020330081635819</v>
+      </c>
+      <c r="L5" s="30">
+        <v>0.98898635422474834</v>
+      </c>
+      <c r="M5" s="30">
+        <v>3.3335333273453469</v>
+      </c>
+      <c r="N5" s="32">
+        <v>4.9233923373645253E-2</v>
+      </c>
+      <c r="O5" s="49">
+        <v>11.58761952650017</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.1301028588553724</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>3.525632625042904</v>
+      </c>
+      <c r="R5" s="50">
+        <v>1.1294796323237721E-2</v>
+      </c>
+      <c r="S5" s="51">
+        <v>14.21419571698031</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0.68592764464321698</v>
+      </c>
+      <c r="U5" s="30">
+        <v>3.356849059233296</v>
+      </c>
+      <c r="V5" s="32">
+        <v>2.537190952464102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" s="41">
+        <v>13.275613275613271</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.91832049504746427</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3.7568542568542571</v>
+      </c>
+      <c r="F6" s="27">
+        <v>7.9646621181706068E-2</v>
+      </c>
+      <c r="G6" s="47">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1.1899294734827299</v>
+      </c>
+      <c r="I6" s="26">
+        <v>3.6907166907166911</v>
+      </c>
+      <c r="J6" s="48">
+        <v>0.13815352050806151</v>
+      </c>
+      <c r="K6" s="39">
+        <v>12.36171236171236</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.72470029693695825</v>
+      </c>
+      <c r="M6" s="25">
+        <v>3.626984126984127</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0.1032477364191558</v>
+      </c>
+      <c r="O6" s="47">
+        <v>12.698412698412699</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0.24993518146737051</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>3.5678210678210678</v>
+      </c>
+      <c r="R6" s="48">
+        <v>3.0627684382093921E-2</v>
+      </c>
+      <c r="S6" s="39">
+        <v>11.44781144781145</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0.88037543134791374</v>
+      </c>
+      <c r="U6" s="25">
+        <v>3.7780182780182781</v>
+      </c>
+      <c r="V6" s="27">
+        <v>7.2525079622631841E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" s="40">
+        <v>13.624907152442519</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0.57675461937842498</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3.377277059239042</v>
+      </c>
+      <c r="F7" s="32">
+        <v>3.7682749287323528E-2</v>
+      </c>
+      <c r="G7" s="51">
+        <v>13.935929951517981</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.36058478897904289</v>
+      </c>
+      <c r="I7" s="31">
+        <v>3.260874370744669</v>
+      </c>
+      <c r="J7" s="50">
+        <v>2.2728702862009301E-2</v>
+      </c>
+      <c r="K7" s="40">
+        <v>13.703921135316749</v>
+      </c>
+      <c r="L7" s="30">
+        <v>0.31774255488611097</v>
+      </c>
+      <c r="M7" s="30">
+        <v>3.3365748921385849</v>
+      </c>
+      <c r="N7" s="32">
+        <v>2.5008020539200478E-2</v>
+      </c>
+      <c r="O7" s="49">
+        <v>10.93448923312685</v>
+      </c>
+      <c r="P7" s="31">
+        <v>7.7135211973052842E-2</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>3.614059526553921</v>
+      </c>
+      <c r="R7" s="50">
+        <v>7.0457502010823226E-3</v>
+      </c>
+      <c r="S7" s="40">
+        <v>13.553353216043311</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0.30074398024050031</v>
+      </c>
+      <c r="U7" s="30">
+        <v>3.4581878843603202</v>
+      </c>
+      <c r="V7" s="32">
+        <v>3.427511296141679E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="39">
+        <v>13.02964758248916</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.47314218453977008</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4.0655006392333304</v>
+      </c>
+      <c r="F8" s="27">
+        <v>7.5572132092173769E-2</v>
+      </c>
+      <c r="G8" s="41">
+        <v>13.470567474059649</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.26266787549958759</v>
+      </c>
+      <c r="I8" s="26">
+        <v>3.606905770693055</v>
+      </c>
+      <c r="J8" s="48">
+        <v>2.4692704647084011E-2</v>
+      </c>
+      <c r="K8" s="39">
+        <v>13.262459113621629</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.61142261693635591</v>
+      </c>
+      <c r="M8" s="25">
+        <v>3.6234307213002039</v>
+      </c>
+      <c r="N8" s="27">
+        <v>4.4856509739846728E-2</v>
+      </c>
+      <c r="O8" s="47">
+        <v>12.8705138313471</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0.29608731887771789</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>3.639232790484193</v>
+      </c>
+      <c r="R8" s="48">
+        <v>2.3962174561678411E-2</v>
+      </c>
+      <c r="S8" s="39">
+        <v>12.294893526770901</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0.48528483911866538</v>
+      </c>
+      <c r="U8" s="25">
+        <v>3.8410444732625622</v>
+      </c>
+      <c r="V8" s="27">
+        <v>4.681469623995644E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" s="40">
+        <v>13.621490830102561</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.36033327539197268</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3.338420083037752</v>
+      </c>
+      <c r="F9" s="32">
+        <v>2.5817798621766821E-2</v>
+      </c>
+      <c r="G9" s="51">
+        <v>14.50686023811488</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.45192158809435812</v>
+      </c>
+      <c r="I9" s="31">
+        <v>3.1998405235227798</v>
+      </c>
+      <c r="J9" s="50">
+        <v>2.9746698056511759E-2</v>
+      </c>
+      <c r="K9" s="40">
+        <v>14.04217877863015</v>
+      </c>
+      <c r="L9" s="30">
+        <v>0.31304346980067249</v>
+      </c>
+      <c r="M9" s="30">
+        <v>3.273557150320328</v>
+      </c>
+      <c r="N9" s="32">
+        <v>4.9694399296524298E-2</v>
+      </c>
+      <c r="O9" s="49">
+        <v>10.58593857406033</v>
+      </c>
+      <c r="P9" s="31">
+        <v>4.7782856820321573E-2</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>3.6333690780609862</v>
+      </c>
+      <c r="R9" s="50">
+        <v>1.204667581680529E-2</v>
+      </c>
+      <c r="S9" s="40">
+        <v>13.57199813027578</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0.42400850232233461</v>
+      </c>
+      <c r="U9" s="30">
+        <v>3.4423547526739799</v>
+      </c>
+      <c r="V9" s="32">
+        <v>2.276637625746868E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" s="39">
+        <v>15.24558082076177</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.54303932383688813</v>
+      </c>
+      <c r="E10" s="25">
+        <v>3.056829789123416</v>
+      </c>
+      <c r="F10" s="27">
+        <v>3.714094886221362E-2</v>
+      </c>
+      <c r="G10" s="41">
+        <v>15.783064148681181</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.72991671686010007</v>
+      </c>
+      <c r="I10" s="26">
+        <v>3.095974238241217</v>
+      </c>
+      <c r="J10" s="48">
+        <v>2.1730139752308961E-2</v>
+      </c>
+      <c r="K10" s="39">
+        <v>15.653069093241029</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.61472963118865354</v>
+      </c>
+      <c r="M10" s="25">
+        <v>3.118598795193841</v>
+      </c>
+      <c r="N10" s="27">
+        <v>5.9086200926733903E-2</v>
+      </c>
+      <c r="O10" s="47">
+        <v>10.14782144153499</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0.20619182564985181</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>3.5324051445605749</v>
+      </c>
+      <c r="R10" s="48">
+        <v>2.7483983607722522E-2</v>
+      </c>
+      <c r="S10" s="39">
+        <v>15.444976233176</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0.31965371748824639</v>
+      </c>
+      <c r="U10" s="25">
+        <v>3.283540005925897</v>
+      </c>
+      <c r="V10" s="27">
+        <v>2.28919566788446E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" s="40">
+        <v>12.604709457479141</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.31283437803301278</v>
+      </c>
+      <c r="E11" s="30">
+        <v>3.562148564641276</v>
+      </c>
+      <c r="F11" s="32">
+        <v>3.3530150419485663E-2</v>
+      </c>
+      <c r="G11" s="51">
+        <v>13.20187961806038</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0.16674494200926951</v>
+      </c>
+      <c r="I11" s="31">
+        <v>3.364164487790581</v>
+      </c>
+      <c r="J11" s="50">
+        <v>2.3418156259808601E-2</v>
+      </c>
+      <c r="K11" s="40">
+        <v>12.69731940395206</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.18251175137556991</v>
+      </c>
+      <c r="M11" s="30">
+        <v>3.43461464744628</v>
+      </c>
+      <c r="N11" s="32">
+        <v>4.3982645250231739E-2</v>
+      </c>
+      <c r="O11" s="49">
+        <v>12.072396532309069</v>
+      </c>
+      <c r="P11" s="31">
+        <v>9.7639998205859876E-2</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>3.5542285043269009</v>
+      </c>
+      <c r="R11" s="50">
+        <v>1.7460768159985561E-2</v>
+      </c>
+      <c r="S11" s="40">
+        <v>11.22530350008484</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0.20194320615839259</v>
+      </c>
+      <c r="U11" s="30">
+        <v>3.598201983741343</v>
+      </c>
+      <c r="V11" s="32">
+        <v>1.8287359556537281E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" s="39">
+        <v>14.56897579851303</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.65716200138857805</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3.3146086543450228</v>
+      </c>
+      <c r="F12" s="27">
+        <v>7.2107114596760474E-2</v>
+      </c>
+      <c r="G12" s="41">
+        <v>14.870861578650601</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.44688995234376488</v>
+      </c>
+      <c r="I12" s="26">
+        <v>3.2152179231727369</v>
+      </c>
+      <c r="J12" s="48">
+        <v>3.9978976552769607E-2</v>
+      </c>
+      <c r="K12" s="39">
+        <v>14.415661823636171</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.72791879822995997</v>
+      </c>
+      <c r="M12" s="25">
+        <v>3.302396024388611</v>
+      </c>
+      <c r="N12" s="27">
+        <v>5.6220893552478328E-2</v>
+      </c>
+      <c r="O12" s="47">
+        <v>10.514583831232031</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0.1870924431538088</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>3.5189479084217359</v>
+      </c>
+      <c r="R12" s="48">
+        <v>2.2581519227340391E-2</v>
+      </c>
+      <c r="S12" s="39">
+        <v>12.627739646308299</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0.47774016349987658</v>
+      </c>
+      <c r="U12" s="25">
+        <v>3.496562868474149</v>
+      </c>
+      <c r="V12" s="27">
+        <v>2.5951018318809169E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" s="42">
+        <v>15.009365035592349</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.76153297955352284</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3.1385140592882048</v>
+      </c>
+      <c r="F13" s="34">
+        <v>6.3550746273699568E-2</v>
+      </c>
+      <c r="G13" s="52">
+        <v>14.77094615870557</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.46378268065329642</v>
+      </c>
+      <c r="I13" s="21">
+        <v>3.1847444124344721</v>
+      </c>
+      <c r="J13" s="46">
+        <v>4.3387028760920619E-2</v>
+      </c>
+      <c r="K13" s="38">
+        <v>14.115465380009219</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.56798432518000197</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3.2846985814562522</v>
+      </c>
+      <c r="N13" s="34">
+        <v>4.6487327817091931E-2</v>
+      </c>
+      <c r="O13" s="52">
+        <v>12.23393096146612</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.24390589026607151</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>3.721352998278241</v>
+      </c>
+      <c r="R13" s="46">
+        <v>2.686801065728894E-2</v>
+      </c>
+      <c r="S13" s="38">
+        <v>12.778791535546389</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0.67118015701837386</v>
+      </c>
+      <c r="U13" s="19">
+        <v>3.445852361664441</v>
+      </c>
+      <c r="V13" s="34">
+        <v>4.9491544997647421E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
+      <c r="C14" s="40">
+        <v>12.901527119536601</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0.87325560567546079</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3.386606986133053</v>
+      </c>
+      <c r="F14" s="32">
+        <v>7.0068639042256478E-2</v>
+      </c>
+      <c r="G14" s="51">
+        <v>12.998069159206601</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0.48849991399247811</v>
+      </c>
+      <c r="I14" s="31">
+        <v>3.3151658767772512</v>
+      </c>
+      <c r="J14" s="50">
+        <v>2.0523617977783098E-2</v>
+      </c>
+      <c r="K14" s="40">
+        <v>12.120414253115669</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0.88907784884178165</v>
+      </c>
+      <c r="M14" s="30">
+        <v>3.4704230296647358</v>
+      </c>
+      <c r="N14" s="32">
+        <v>6.3954611233964426E-2</v>
+      </c>
+      <c r="O14" s="49">
+        <v>11.005792522380199</v>
+      </c>
+      <c r="P14" s="31">
+        <v>3.7235744138312557E-2</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>3.55616991398982</v>
+      </c>
+      <c r="R14" s="50">
+        <v>7.8323017438381801E-3</v>
+      </c>
+      <c r="S14" s="40">
+        <v>10.68983675618747</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0.6936250591005525</v>
+      </c>
+      <c r="U14" s="30">
+        <v>3.500263296471827</v>
+      </c>
+      <c r="V14" s="32">
+        <v>6.0617687189408617E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D13A8E-766C-4D9F-A080-45C22C98B256}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="19">
+        <v>13.68419617011169</v>
+      </c>
+      <c r="D3" s="19">
+        <v>14.464005274503149</v>
+      </c>
+      <c r="E3" s="19">
+        <v>13.305923108653269</v>
+      </c>
+      <c r="F3" s="20">
+        <v>13.275613275613271</v>
+      </c>
+      <c r="G3" s="19">
+        <v>13.624907152442519</v>
+      </c>
+      <c r="H3" s="19">
+        <v>13.02964758248916</v>
+      </c>
+      <c r="I3" s="19">
+        <v>13.621490830102561</v>
+      </c>
+      <c r="J3" s="19">
+        <v>15.24558082076177</v>
+      </c>
+      <c r="K3" s="19">
+        <v>12.604709457479141</v>
+      </c>
+      <c r="L3" s="19">
+        <v>14.56897579851303</v>
+      </c>
+      <c r="M3" s="20">
+        <v>15.009365035592349</v>
+      </c>
+      <c r="N3" s="19">
+        <v>12.901527119536601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.35643995104970649</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.76944848160841917</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.3843904849166539</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.91832049504746427</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.57675461937842498</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.47314218453977008</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.36033327539197268</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.54303932383688813</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.31283437803301278</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0.65716200138857805</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.76153297955352284</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.87325560567546079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3.3638300043114291</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3.316043705391448</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3.2980906015476692</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3.7568542568542571</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3.377277059239042</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.0655006392333304</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3.338420083037752</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3.056829789123416</v>
+      </c>
+      <c r="K5" s="19">
+        <v>3.562148564641276</v>
+      </c>
+      <c r="L5" s="19">
+        <v>3.3146086543450228</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3.1385140592882048</v>
+      </c>
+      <c r="N5" s="19">
+        <v>3.386606986133053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3.7154522260609509E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5.012622077502292E-2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5.3347120029770538E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>7.9646621181706068E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>3.7682749287323528E-2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7.5572132092173769E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2.5817798621766821E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3.714094886221362E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>3.3530150419485663E-2</v>
+      </c>
+      <c r="L6" s="19">
+        <v>7.2107114596760474E-2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>6.3550746273699568E-2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>7.0068639042256478E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="20">
+        <v>13.70657143459686</v>
+      </c>
+      <c r="D7" s="21">
+        <v>14.97017445299962</v>
+      </c>
+      <c r="E7" s="21">
+        <v>13.37610641164629</v>
+      </c>
+      <c r="F7" s="21">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="G7" s="20">
+        <v>13.935929951517981</v>
+      </c>
+      <c r="H7" s="20">
+        <v>13.470567474059649</v>
+      </c>
+      <c r="I7" s="20">
+        <v>14.50686023811488</v>
+      </c>
+      <c r="J7" s="20">
+        <v>15.783064148681181</v>
+      </c>
+      <c r="K7" s="20">
+        <v>13.20187961806038</v>
+      </c>
+      <c r="L7" s="20">
+        <v>14.870861578650601</v>
+      </c>
+      <c r="M7" s="21">
+        <v>14.77094615870557</v>
+      </c>
+      <c r="N7" s="20">
+        <v>12.998069159206601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.30696626193381049</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.39929270256664467</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.51792100539832031</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.1899294734827299</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.36058478897904289</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.26266787549958759</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.45192158809435812</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.72991671686010007</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.16674494200926951</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.44688995234376488</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0.46378268065329642</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.48849991399247811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3.2743121780015341</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3.230899488560623</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.2447210160453182</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3.6907166907166911</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3.260874370744669</v>
+      </c>
+      <c r="H9" s="21">
+        <v>3.606905770693055</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3.1998405235227798</v>
+      </c>
+      <c r="J9" s="21">
+        <v>3.095974238241217</v>
+      </c>
+      <c r="K9" s="21">
+        <v>3.364164487790581</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3.2152179231727369</v>
+      </c>
+      <c r="M9" s="21">
+        <v>3.1847444124344721</v>
+      </c>
+      <c r="N9" s="21">
+        <v>3.3151658767772512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2.1288679573072192E-2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3.0856189909584279E-2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>5.0702041121843407E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.13815352050806151</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2.2728702862009301E-2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2.4692704647084011E-2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2.9746698056511759E-2</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2.1730139752308961E-2</v>
+      </c>
+      <c r="K10" s="21">
+        <v>2.3418156259808601E-2</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3.9978976552769607E-2</v>
+      </c>
+      <c r="M10" s="21">
+        <v>4.3387028760920619E-2</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2.0523617977783098E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="19">
+        <v>13.299147418175361</v>
+      </c>
+      <c r="D11" s="20">
+        <v>15.086002913096699</v>
+      </c>
+      <c r="E11" s="19">
+        <v>13.020330081635819</v>
+      </c>
+      <c r="F11" s="19">
+        <v>12.36171236171236</v>
+      </c>
+      <c r="G11" s="19">
+        <v>13.703921135316749</v>
+      </c>
+      <c r="H11" s="19">
+        <v>13.262459113621629</v>
+      </c>
+      <c r="I11" s="19">
+        <v>14.04217877863015</v>
+      </c>
+      <c r="J11" s="19">
+        <v>15.653069093241029</v>
+      </c>
+      <c r="K11" s="19">
+        <v>12.69731940395206</v>
+      </c>
+      <c r="L11" s="19">
+        <v>14.415661823636171</v>
+      </c>
+      <c r="M11" s="19">
+        <v>14.115465380009219</v>
+      </c>
+      <c r="N11" s="19">
+        <v>12.120414253115669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.3403347948896171</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.47090330621508192</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.98898635422474834</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.72470029693695825</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.31774255488611097</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.61142261693635591</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.31304346980067249</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.61472963118865354</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.18251175137556991</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.72791879822995997</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.56798432518000197</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.88907784884178165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3.3544079893422811</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.232105441715631</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3.3335333273453469</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3.626984126984127</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3.3365748921385849</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.6234307213002039</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3.273557150320328</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3.118598795193841</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3.43461464744628</v>
+      </c>
+      <c r="L13" s="19">
+        <v>3.302396024388611</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3.2846985814562522</v>
+      </c>
+      <c r="N13" s="19">
+        <v>3.4704230296647358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="19">
+        <v>3.1639983123485281E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3.3621747320795689E-2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4.9233923373645253E-2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.1032477364191558</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2.5008020539200478E-2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4.4856509739846728E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4.9694399296524298E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>5.9086200926733903E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4.3982645250231739E-2</v>
+      </c>
+      <c r="L14" s="19">
+        <v>5.6220893552478328E-2</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4.6487327817091931E-2</v>
+      </c>
+      <c r="N14" s="19">
+        <v>6.3954611233964426E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="21">
+        <v>11.0494284980771</v>
+      </c>
+      <c r="D15" s="21">
+        <v>10.55632133208359</v>
+      </c>
+      <c r="E15" s="21">
+        <v>11.58761952650017</v>
+      </c>
+      <c r="F15" s="21">
+        <v>12.698412698412699</v>
+      </c>
+      <c r="G15" s="21">
+        <v>10.93448923312685</v>
+      </c>
+      <c r="H15" s="21">
+        <v>12.8705138313471</v>
+      </c>
+      <c r="I15" s="21">
+        <v>10.58593857406033</v>
+      </c>
+      <c r="J15" s="21">
+        <v>10.14782144153499</v>
+      </c>
+      <c r="K15" s="21">
+        <v>12.072396532309069</v>
+      </c>
+      <c r="L15" s="21">
+        <v>10.514583831232031</v>
+      </c>
+      <c r="M15" s="21">
+        <v>12.23393096146612</v>
+      </c>
+      <c r="N15" s="21">
+        <v>11.005792522380199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4.6021618055162652E-2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.14871784203071811</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.1301028588553724</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.24993518146737051</v>
+      </c>
+      <c r="G16" s="21">
+        <v>7.7135211973052842E-2</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.29608731887771789</v>
+      </c>
+      <c r="I16" s="21">
+        <v>4.7782856820321573E-2</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.20619182564985181</v>
+      </c>
+      <c r="K16" s="21">
+        <v>9.7639998205859876E-2</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.1870924431538088</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0.24390589026607151</v>
+      </c>
+      <c r="N16" s="21">
+        <v>3.7235744138312557E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="21">
+        <v>3.5896982824661832</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3.6540125282695719</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.525632625042904</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3.5678210678210678</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3.614059526553921</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3.639232790484193</v>
+      </c>
+      <c r="I17" s="21">
+        <v>3.6333690780609862</v>
+      </c>
+      <c r="J17" s="21">
+        <v>3.5324051445605749</v>
+      </c>
+      <c r="K17" s="21">
+        <v>3.5542285043269009</v>
+      </c>
+      <c r="L17" s="21">
+        <v>3.5189479084217359</v>
+      </c>
+      <c r="M17" s="21">
+        <v>3.721352998278241</v>
+      </c>
+      <c r="N17" s="21">
+        <v>3.55616991398982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="21">
+        <v>6.907362017602176E-3</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1.850002113290608E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1.1294796323237721E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3.0627684382093921E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>7.0457502010823226E-3</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2.3962174561678411E-2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1.204667581680529E-2</v>
+      </c>
+      <c r="J18" s="21">
+        <v>2.7483983607722522E-2</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1.7460768159985561E-2</v>
+      </c>
+      <c r="L18" s="21">
+        <v>2.2581519227340391E-2</v>
+      </c>
+      <c r="M18" s="21">
+        <v>2.686801065728894E-2</v>
+      </c>
+      <c r="N18" s="21">
+        <v>7.8323017438381801E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19">
+        <v>13.37750594438238</v>
+      </c>
+      <c r="D19" s="19">
+        <v>12.6109651582442</v>
+      </c>
+      <c r="E19" s="20">
+        <v>14.21419571698031</v>
+      </c>
+      <c r="F19" s="19">
+        <v>11.44781144781145</v>
+      </c>
+      <c r="G19" s="19">
+        <v>13.553353216043311</v>
+      </c>
+      <c r="H19" s="19">
+        <v>12.294893526770901</v>
+      </c>
+      <c r="I19" s="19">
+        <v>13.57199813027578</v>
+      </c>
+      <c r="J19" s="19">
+        <v>15.444976233176</v>
+      </c>
+      <c r="K19" s="19">
+        <v>11.22530350008484</v>
+      </c>
+      <c r="L19" s="19">
+        <v>12.627739646308299</v>
+      </c>
+      <c r="M19" s="19">
+        <v>12.778791535546389</v>
+      </c>
+      <c r="N19" s="19">
+        <v>10.68983675618747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.34315854089172032</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.61456057183469459</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.68592764464321698</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.88037543134791374</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.30074398024050031</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.48528483911866538</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.42400850232233461</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.31965371748824639</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.20194320615839259</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0.47774016349987658</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0.67118015701837386</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.6936250591005525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3.455409117811135</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3.521385315403069</v>
+      </c>
+      <c r="E21" s="19">
+        <v>3.356849059233296</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3.7780182780182781</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3.4581878843603202</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3.8410444732625622</v>
+      </c>
+      <c r="I21" s="19">
+        <v>3.4423547526739799</v>
+      </c>
+      <c r="J21" s="19">
+        <v>3.283540005925897</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3.598201983741343</v>
+      </c>
+      <c r="L21" s="19">
+        <v>3.496562868474149</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3.445852361664441</v>
+      </c>
+      <c r="N21" s="19">
+        <v>3.500263296471827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2.4389117164180549E-2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3.45109381736661E-2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2.537190952464102E-2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>7.2525079622631841E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3.427511296141679E-2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>4.681469623995644E-2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2.276637625746868E-2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2.28919566788446E-2</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1.8287359556537281E-2</v>
+      </c>
+      <c r="L22" s="19">
+        <v>2.5951018318809169E-2</v>
+      </c>
+      <c r="M22" s="19">
+        <v>4.9491544997647421E-2</v>
+      </c>
+      <c r="N22" s="19">
+        <v>6.0617687189408617E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454CC701-BACC-4913-87C9-0BDD856A8B65}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1687,10 +3499,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1699,11 +3511,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAEFFDD-0801-450D-8645-7A123AF54D96}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1719,16 +3531,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1736,13 +3548,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7">
         <f>0.39/(1/10^4)</f>
@@ -1754,13 +3566,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E3" s="7">
         <f>0.39/(1/10^6)</f>
@@ -1772,16 +3584,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1789,13 +3601,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E5" s="7">
         <f>0.736/(1/10)</f>
@@ -1807,13 +3619,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7">
         <f>0.739/(1/10)</f>
@@ -1825,13 +3637,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E7" s="7">
         <f>0.169/(1/51)</f>
@@ -1843,13 +3655,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7">
         <f>0.184/(1/51)</f>

--- a/datasets/experiments/research_compare.xlsx
+++ b/datasets/experiments/research_compare.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrc\uc3m\tfm-repo\datasets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCD32-6126-4117-A4B5-A0B8D1248486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EF59B-1407-4C31-839B-727637924E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{75C58647-540A-4D3B-B009-997B45683B1D}"/>
+    <workbookView xWindow="8616" yWindow="4968" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{75C58647-540A-4D3B-B009-997B45683B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="157">
   <si>
     <t>EyeTell</t>
   </si>
@@ -384,12 +385,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>no*</t>
-  </si>
-  <si>
-    <t>*: Because of using HoG as pupil extraction techinque, they assure model robustness in terms of lighting conditions</t>
-  </si>
-  <si>
     <t>Pupil extraction technique</t>
   </si>
   <si>
@@ -423,21 +418,6 @@
     <t>73.6</t>
   </si>
   <si>
-    <t>entire 4-digit PIN</t>
-  </si>
-  <si>
-    <t>entire 6-digit PIN</t>
-  </si>
-  <si>
-    <t>a word</t>
-  </si>
-  <si>
-    <t>single keystroke (4-d PIN)</t>
-  </si>
-  <si>
-    <t>single keystroke (6-d PIN)</t>
-  </si>
-  <si>
     <t>73.9</t>
   </si>
   <si>
@@ -447,15 +427,6 @@
     <t>Gain against random</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>keystroke (natural)</t>
-  </si>
-  <si>
-    <t>keystroke (forced)</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -484,6 +455,189 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Laptop keyboard</t>
+  </si>
+  <si>
+    <t>Smartphone keyboard</t>
+  </si>
+  <si>
+    <t>Data extraction</t>
+  </si>
+  <si>
+    <t>WiKey</t>
+  </si>
+  <si>
+    <t>WindTalker</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>eye-based</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>4 to 25</t>
+  </si>
+  <si>
+    <t>Motion sensors</t>
+  </si>
+  <si>
+    <t>4 to 8</t>
+  </si>
+  <si>
+    <t>Video images</t>
+  </si>
+  <si>
+    <t>Sound sensors</t>
+  </si>
+  <si>
+    <t>PC keyboards</t>
+  </si>
+  <si>
+    <t>5 to 10</t>
+  </si>
+  <si>
+    <t>Smartphone and tablet</t>
+  </si>
+  <si>
+    <t>Sound and motion sensors</t>
+  </si>
+  <si>
+    <t>4 or 6</t>
+  </si>
+  <si>
+    <t>WiPass 1</t>
+  </si>
+  <si>
+    <t>WiPass 2</t>
+  </si>
+  <si>
+    <t>TouchLogger</t>
+  </si>
+  <si>
+    <t>ACCessory</t>
+  </si>
+  <si>
+    <t>TapLogger</t>
+  </si>
+  <si>
+    <t>J. Aviv</t>
+  </si>
+  <si>
+    <t>Asonov et al.</t>
+  </si>
+  <si>
+    <t>Asonov et al. Revisited</t>
+  </si>
+  <si>
+    <t>Narain et al.</t>
+  </si>
+  <si>
+    <t>Zhu et al.</t>
+  </si>
+  <si>
+    <t>Smartphones</t>
+  </si>
+  <si>
+    <t>Backes et al.</t>
+  </si>
+  <si>
+    <t>LCD Screen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Backes et al. Revisited</t>
+  </si>
+  <si>
+    <t>iSpy</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>39 sentences</t>
+  </si>
+  <si>
+    <t>Maggi et al.</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>ClearShot</t>
+  </si>
+  <si>
+    <t>236 words</t>
+  </si>
+  <si>
+    <t>Cardaioli et al.</t>
+  </si>
+  <si>
+    <t>ATM's PIN pad</t>
+  </si>
+  <si>
+    <t>7 at much</t>
+  </si>
+  <si>
+    <t>AlphaLogger</t>
+  </si>
+  <si>
+    <t>PIN Skimmer</t>
+  </si>
+  <si>
+    <t>4 or 8</t>
+  </si>
+  <si>
+    <t>Shukia et al.</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Entire 4-digit PIN</t>
+  </si>
+  <si>
+    <t>Entire 6-digit PIN</t>
+  </si>
+  <si>
+    <t>A word</t>
+  </si>
+  <si>
+    <t>Single keystroke (4-d PIN)</t>
+  </si>
+  <si>
+    <t>Single keystroke (6-d PIN)</t>
+  </si>
+  <si>
+    <t>Single keystroke (natural)</t>
+  </si>
+  <si>
+    <t>Single keystroke (forced)</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Usability and environment analysis</t>
+  </si>
+  <si>
+    <t>$\surd$</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -696,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -720,12 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -743,50 +891,20 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -802,17 +920,165 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -823,6 +1089,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A896DBF5-1C41-4CA9-B173-28FB77678EC4}" name="Tabla1" displayName="Tabla1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H28" xr:uid="{A896DBF5-1C41-4CA9-B173-28FB77678EC4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition descending="1" ref="B1:B28"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00186382-E268-4101-9174-2B0C4FFD6E6A}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7D5690B7-399B-4CEA-B887-C22139DFE986}" name="Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4D98067D-97D3-4FB5-B12B-28CA62AF19CC}" name="Device" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1DEF61F4-1157-4C56-BFE5-165D2E0CD7F4}" name="Data extraction" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{24155BF9-950B-421B-845C-53782D067630}" name="Number of participants" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7C766C69-19B5-4546-AE9A-C112903917BE}" name="Total keystrokes collected" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0F9C9AF1-C1B3-4602-8DC8-7952D2A60AA8}" name="Key set" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{7C071A2B-5F3D-4C26-AD9F-2395D55D249F}" name="Input length" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,10 +1521,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
+      <selection activeCell="B1" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
@@ -1355,7 +1648,7 @@
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -1378,16 +1671,16 @@
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>66</v>
@@ -1413,10 +1706,10 @@
         <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>67</v>
@@ -1468,35 +1761,813 @@
         <v>67</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:G13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18940702-8B39-4238-A73B-20502E3C6878}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4070</v>
+      </c>
+      <c r="G2" s="7">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="7">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>250</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="7">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2246</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="7">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="57">
+        <v>40</v>
+      </c>
+      <c r="F12" s="57">
+        <v>29000</v>
+      </c>
+      <c r="G12" s="57">
+        <v>10</v>
+      </c>
+      <c r="H12" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7">
+        <v>920</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="8">
+        <v>16478</v>
+      </c>
+      <c r="G15" s="7">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6824</v>
+      </c>
+      <c r="G17" s="7">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7">
+        <v>449</v>
+      </c>
+      <c r="G19" s="7">
+        <v>16</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="7">
+        <v>60</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="7">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="55">
+        <v>22</v>
+      </c>
+      <c r="F23" s="55">
+        <v>1320</v>
+      </c>
+      <c r="G23" s="55">
+        <v>10</v>
+      </c>
+      <c r="H23" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="57">
+        <v>22</v>
+      </c>
+      <c r="F24" s="57">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="57">
+        <v>10</v>
+      </c>
+      <c r="H24" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="57">
+        <v>22</v>
+      </c>
+      <c r="F25" s="58">
+        <v>29700</v>
+      </c>
+      <c r="G25" s="57">
+        <v>26</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="57">
+        <v>26</v>
+      </c>
+      <c r="F26" s="57">
+        <v>2600</v>
+      </c>
+      <c r="G26" s="57">
+        <v>10</v>
+      </c>
+      <c r="H26" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="57">
+        <v>26</v>
+      </c>
+      <c r="F27" s="57">
+        <v>7800</v>
+      </c>
+      <c r="G27" s="57">
+        <v>10</v>
+      </c>
+      <c r="H27" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="57">
+        <v>30</v>
+      </c>
+      <c r="F28" s="57">
+        <v>49635</v>
+      </c>
+      <c r="G28" s="57">
+        <v>50</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694FACA3-804F-4416-A782-8BA64889461D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
@@ -1531,902 +2602,902 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="43" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="35" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="35" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="65"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>103</v>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="42">
         <v>13.68419617011169</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="43">
         <v>0.35643995104970649</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="43">
         <v>3.3638300043114291</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="44">
         <v>3.7154522260609509E-2</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="45">
         <v>13.70657143459686</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="46">
         <v>0.30696626193381049</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="46">
         <v>3.2743121780015341</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="47">
         <v>2.1288679573072192E-2</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="42">
         <v>13.299147418175361</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="43">
         <v>0.3403347948896171</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="43">
         <v>3.3544079893422811</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="44">
         <v>3.1639983123485281E-2</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="48">
         <v>11.0494284980771</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="46">
         <v>4.6021618055162652E-2</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="46">
         <v>3.5896982824661832</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="47">
         <v>6.907362017602176E-3</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="42">
         <v>13.37750594438238</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="43">
         <v>0.34315854089172032</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="43">
         <v>3.455409117811135</v>
       </c>
-      <c r="V3" s="56">
+      <c r="V3" s="44">
         <v>2.4389117164180549E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="30">
         <v>14.464005274503149</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>0.76944848160841917</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>3.316043705391448</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="23">
         <v>5.012622077502292E-2</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="35">
         <v>14.97017445299962</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>0.39929270256664467</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="22">
         <v>3.230899488560623</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="36">
         <v>3.0856189909584279E-2</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="32">
         <v>15.086002913096699</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="21">
         <v>0.47090330621508192</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="21">
         <v>3.232105441715631</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="23">
         <v>3.3621747320795689E-2</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="35">
         <v>10.55632133208359</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="22">
         <v>0.14871784203071811</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="22">
         <v>3.6540125282695719</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="36">
         <v>1.850002113290608E-2</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="30">
         <v>12.6109651582442</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="21">
         <v>0.61456057183469459</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="21">
         <v>3.521385315403069</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="23">
         <v>3.45109381736661E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="31">
         <v>13.305923108653269</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>0.3843904849166539</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>3.2980906015476692</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <v>5.3347120029770538E-2</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="37">
         <v>13.37610641164629</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="26">
         <v>0.51792100539832031</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="26">
         <v>3.2447210160453182</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="38">
         <v>5.0702041121843407E-2</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="31">
         <v>13.020330081635819</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="25">
         <v>0.98898635422474834</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="25">
         <v>3.3335333273453469</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="27">
         <v>4.9233923373645253E-2</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="37">
         <v>11.58761952650017</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="26">
         <v>0.1301028588553724</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="26">
         <v>3.525632625042904</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="38">
         <v>1.1294796323237721E-2</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="39">
         <v>14.21419571698031</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="25">
         <v>0.68592764464321698</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="25">
         <v>3.356849059233296</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="27">
         <v>2.537190952464102E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="32">
         <v>13.275613275613271</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="21">
         <v>0.91832049504746427</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>3.7568542568542571</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <v>7.9646621181706068E-2</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="35">
         <v>12.98701298701299</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>1.1899294734827299</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <v>3.6907166907166911</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="36">
         <v>0.13815352050806151</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="30">
         <v>12.36171236171236</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="21">
         <v>0.72470029693695825</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="21">
         <v>3.626984126984127</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="23">
         <v>0.1032477364191558</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="35">
         <v>12.698412698412699</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="22">
         <v>0.24993518146737051</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="22">
         <v>3.5678210678210678</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="36">
         <v>3.0627684382093921E-2</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="30">
         <v>11.44781144781145</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="21">
         <v>0.88037543134791374</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="21">
         <v>3.7780182780182781</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="23">
         <v>7.2525079622631841E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="31">
         <v>13.624907152442519</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <v>0.57675461937842498</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>3.377277059239042</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="27">
         <v>3.7682749287323528E-2</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="39">
         <v>13.935929951517981</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="26">
         <v>0.36058478897904289</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="26">
         <v>3.260874370744669</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="38">
         <v>2.2728702862009301E-2</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="31">
         <v>13.703921135316749</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>0.31774255488611097</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <v>3.3365748921385849</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="27">
         <v>2.5008020539200478E-2</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="37">
         <v>10.93448923312685</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="26">
         <v>7.7135211973052842E-2</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="26">
         <v>3.614059526553921</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="38">
         <v>7.0457502010823226E-3</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="31">
         <v>13.553353216043311</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="25">
         <v>0.30074398024050031</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="25">
         <v>3.4581878843603202</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="27">
         <v>3.427511296141679E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="30">
         <v>13.02964758248916</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>0.47314218453977008</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>4.0655006392333304</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <v>7.5572132092173769E-2</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="32">
         <v>13.470567474059649</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>0.26266787549958759</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <v>3.606905770693055</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="36">
         <v>2.4692704647084011E-2</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="30">
         <v>13.262459113621629</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="21">
         <v>0.61142261693635591</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="21">
         <v>3.6234307213002039</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="23">
         <v>4.4856509739846728E-2</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="35">
         <v>12.8705138313471</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="22">
         <v>0.29608731887771789</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="22">
         <v>3.639232790484193</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="36">
         <v>2.3962174561678411E-2</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="30">
         <v>12.294893526770901</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="21">
         <v>0.48528483911866538</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="21">
         <v>3.8410444732625622</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="23">
         <v>4.681469623995644E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="31">
         <v>13.621490830102561</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <v>0.36033327539197268</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>3.338420083037752</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <v>2.5817798621766821E-2</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="39">
         <v>14.50686023811488</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="26">
         <v>0.45192158809435812</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="26">
         <v>3.1998405235227798</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="38">
         <v>2.9746698056511759E-2</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="31">
         <v>14.04217877863015</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="25">
         <v>0.31304346980067249</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="25">
         <v>3.273557150320328</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="27">
         <v>4.9694399296524298E-2</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="37">
         <v>10.58593857406033</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="26">
         <v>4.7782856820321573E-2</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="26">
         <v>3.6333690780609862</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="38">
         <v>1.204667581680529E-2</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="31">
         <v>13.57199813027578</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="25">
         <v>0.42400850232233461</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="25">
         <v>3.4423547526739799</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="27">
         <v>2.276637625746868E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="30">
         <v>15.24558082076177</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>0.54303932383688813</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>3.056829789123416</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="23">
         <v>3.714094886221362E-2</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="32">
         <v>15.783064148681181</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>0.72991671686010007</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>3.095974238241217</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="36">
         <v>2.1730139752308961E-2</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="30">
         <v>15.653069093241029</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="21">
         <v>0.61472963118865354</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="21">
         <v>3.118598795193841</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="23">
         <v>5.9086200926733903E-2</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="35">
         <v>10.14782144153499</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="22">
         <v>0.20619182564985181</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="22">
         <v>3.5324051445605749</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="36">
         <v>2.7483983607722522E-2</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="30">
         <v>15.444976233176</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="21">
         <v>0.31965371748824639</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="21">
         <v>3.283540005925897</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="23">
         <v>2.28919566788446E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="31">
         <v>12.604709457479141</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <v>0.31283437803301278</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="25">
         <v>3.562148564641276</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="27">
         <v>3.3530150419485663E-2</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="39">
         <v>13.20187961806038</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="26">
         <v>0.16674494200926951</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="26">
         <v>3.364164487790581</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="38">
         <v>2.3418156259808601E-2</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="31">
         <v>12.69731940395206</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="25">
         <v>0.18251175137556991</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="25">
         <v>3.43461464744628</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="27">
         <v>4.3982645250231739E-2</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="37">
         <v>12.072396532309069</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="26">
         <v>9.7639998205859876E-2</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="26">
         <v>3.5542285043269009</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="38">
         <v>1.7460768159985561E-2</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="31">
         <v>11.22530350008484</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T11" s="25">
         <v>0.20194320615839259</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="25">
         <v>3.598201983741343</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="27">
         <v>1.8287359556537281E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="30">
         <v>14.56897579851303</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <v>0.65716200138857805</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>3.3146086543450228</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="23">
         <v>7.2107114596760474E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="32">
         <v>14.870861578650601</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>0.44688995234376488</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <v>3.2152179231727369</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="36">
         <v>3.9978976552769607E-2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="30">
         <v>14.415661823636171</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="21">
         <v>0.72791879822995997</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="21">
         <v>3.302396024388611</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="23">
         <v>5.6220893552478328E-2</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="35">
         <v>10.514583831232031</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="22">
         <v>0.1870924431538088</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="22">
         <v>3.5189479084217359</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="36">
         <v>2.2581519227340391E-2</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="30">
         <v>12.627739646308299</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="21">
         <v>0.47774016349987658</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="21">
         <v>3.496562868474149</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="23">
         <v>2.5951018318809169E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="33">
         <v>15.009365035592349</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>0.76153297955352284</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>3.1385140592882048</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="28">
         <v>6.3550746273699568E-2</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="40">
         <v>14.77094615870557</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>0.46378268065329642</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>3.1847444124344721</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="34">
         <v>4.3387028760920619E-2</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="29">
         <v>14.115465380009219</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>0.56798432518000197</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>3.2846985814562522</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="28">
         <v>4.6487327817091931E-2</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="40">
         <v>12.23393096146612</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>0.24390589026607151</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="19">
         <v>3.721352998278241</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="34">
         <v>2.686801065728894E-2</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="29">
         <v>12.778791535546389</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="17">
         <v>0.67118015701837386</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="17">
         <v>3.445852361664441</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="28">
         <v>4.9491544997647421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <v>12.901527119536601</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="25">
         <v>0.87325560567546079</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <v>3.386606986133053</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="27">
         <v>7.0068639042256478E-2</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="39">
         <v>12.998069159206601</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="26">
         <v>0.48849991399247811</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="26">
         <v>3.3151658767772512</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="38">
         <v>2.0523617977783098E-2</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="31">
         <v>12.120414253115669</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>0.88907784884178165</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="25">
         <v>3.4704230296647358</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="27">
         <v>6.3954611233964426E-2</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="37">
         <v>11.005792522380199</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="26">
         <v>3.7235744138312557E-2</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="26">
         <v>3.55616991398982</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="38">
         <v>7.8323017438381801E-3</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="31">
         <v>10.68983675618747</v>
       </c>
-      <c r="T14" s="30">
+      <c r="T14" s="25">
         <v>0.6936250591005525</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="25">
         <v>3.500263296471827</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="27">
         <v>6.0617687189408617E-2</v>
       </c>
     </row>
@@ -2448,12 +3519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D13A8E-766C-4D9F-A080-45C22C98B256}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2475,918 +3546,918 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="A3" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="17">
         <v>13.68419617011169</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>14.464005274503149</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>13.305923108653269</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>13.275613275613271</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>13.624907152442519</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>13.02964758248916</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>13.621490830102561</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>15.24558082076177</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="17">
         <v>12.604709457479141</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <v>14.56897579851303</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <v>15.009365035592349</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>12.901527119536601</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" s="70"/>
+      <c r="B4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="17">
         <v>0.35643995104970649</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>0.76944848160841917</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>0.3843904849166539</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>0.91832049504746427</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>0.57675461937842498</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>0.47314218453977008</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>0.36033327539197268</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>0.54303932383688813</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>0.31283437803301278</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="17">
         <v>0.65716200138857805</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>0.76153297955352284</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="17">
         <v>0.87325560567546079</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" s="70"/>
+      <c r="B5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17">
         <v>3.3638300043114291</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>3.316043705391448</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>3.2980906015476692</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>3.7568542568542571</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>3.377277059239042</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>4.0655006392333304</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <v>3.338420083037752</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>3.056829789123416</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="17">
         <v>3.562148564641276</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <v>3.3146086543450228</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>3.1385140592882048</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="17">
         <v>3.386606986133053</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="70"/>
+      <c r="B6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="17">
         <v>3.7154522260609509E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>5.012622077502292E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>5.3347120029770538E-2</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>7.9646621181706068E-2</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>3.7682749287323528E-2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>7.5572132092173769E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <v>2.5817798621766821E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>3.714094886221362E-2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="17">
         <v>3.3530150419485663E-2</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>7.2107114596760474E-2</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>6.3550746273699568E-2</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <v>7.0068639042256478E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="18">
         <v>13.70657143459686</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>14.97017445299962</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>13.37610641164629</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>12.98701298701299</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>13.935929951517981</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>13.470567474059649</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>14.50686023811488</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>15.783064148681181</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>13.20187961806038</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>14.870861578650601</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <v>14.77094615870557</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="18">
         <v>12.998069159206601</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="A8" s="71"/>
+      <c r="B8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="19">
         <v>0.30696626193381049</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>0.39929270256664467</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>0.51792100539832031</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>1.1899294734827299</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>0.36058478897904289</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>0.26266787549958759</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>0.45192158809435812</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>0.72991671686010007</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>0.16674494200926951</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>0.44688995234376488</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>0.46378268065329642</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="19">
         <v>0.48849991399247811</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="A9" s="71"/>
+      <c r="B9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="19">
         <v>3.2743121780015341</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>3.230899488560623</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>3.2447210160453182</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>3.6907166907166911</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>3.260874370744669</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>3.606905770693055</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>3.1998405235227798</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>3.095974238241217</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>3.364164487790581</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="19">
         <v>3.2152179231727369</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <v>3.1847444124344721</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <v>3.3151658767772512</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="A10" s="71"/>
+      <c r="B10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="19">
         <v>2.1288679573072192E-2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>3.0856189909584279E-2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>5.0702041121843407E-2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>0.13815352050806151</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>2.2728702862009301E-2</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>2.4692704647084011E-2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>2.9746698056511759E-2</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>2.1730139752308961E-2</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>2.3418156259808601E-2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <v>3.9978976552769607E-2</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <v>4.3387028760920619E-2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="19">
         <v>2.0523617977783098E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="17">
         <v>13.299147418175361</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>15.086002913096699</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>13.020330081635819</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>12.36171236171236</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>13.703921135316749</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>13.262459113621629</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>14.04217877863015</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>15.653069093241029</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>12.69731940395206</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>14.415661823636171</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <v>14.115465380009219</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="17">
         <v>12.120414253115669</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="A12" s="70"/>
+      <c r="B12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="17">
         <v>0.3403347948896171</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>0.47090330621508192</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>0.98898635422474834</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>0.72470029693695825</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>0.31774255488611097</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>0.61142261693635591</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>0.31304346980067249</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>0.61472963118865354</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <v>0.18251175137556991</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>0.72791879822995997</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>0.56798432518000197</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="17">
         <v>0.88907784884178165</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="70"/>
+      <c r="B13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="17">
         <v>3.3544079893422811</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>3.232105441715631</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>3.3335333273453469</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>3.626984126984127</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>3.3365748921385849</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>3.6234307213002039</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>3.273557150320328</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>3.118598795193841</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>3.43461464744628</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>3.302396024388611</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>3.2846985814562522</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="17">
         <v>3.4704230296647358</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="A14" s="70"/>
+      <c r="B14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="17">
         <v>3.1639983123485281E-2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>3.3621747320795689E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>4.9233923373645253E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>0.1032477364191558</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>2.5008020539200478E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>4.4856509739846728E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>4.9694399296524298E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>5.9086200926733903E-2</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>4.3982645250231739E-2</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>5.6220893552478328E-2</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>4.6487327817091931E-2</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="17">
         <v>6.3954611233964426E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="A15" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="19">
         <v>11.0494284980771</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>10.55632133208359</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>11.58761952650017</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>12.698412698412699</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>10.93448923312685</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>12.8705138313471</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>10.58593857406033</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>10.14782144153499</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>12.072396532309069</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="19">
         <v>10.514583831232031</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <v>12.23393096146612</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="19">
         <v>11.005792522380199</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="A16" s="71"/>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="19">
         <v>4.6021618055162652E-2</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>0.14871784203071811</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>0.1301028588553724</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>0.24993518146737051</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>7.7135211973052842E-2</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>0.29608731887771789</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>4.7782856820321573E-2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>0.20619182564985181</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <v>9.7639998205859876E-2</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="19">
         <v>0.1870924431538088</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>0.24390589026607151</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="19">
         <v>3.7235744138312557E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="A17" s="71"/>
+      <c r="B17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="19">
         <v>3.5896982824661832</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>3.6540125282695719</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>3.525632625042904</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>3.5678210678210678</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>3.614059526553921</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>3.639232790484193</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>3.6333690780609862</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>3.5324051445605749</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>3.5542285043269009</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <v>3.5189479084217359</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>3.721352998278241</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="19">
         <v>3.55616991398982</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="A18" s="71"/>
+      <c r="B18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="19">
         <v>6.907362017602176E-3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>1.850002113290608E-2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>1.1294796323237721E-2</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>3.0627684382093921E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>7.0457502010823226E-3</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>2.3962174561678411E-2</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>1.204667581680529E-2</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="19">
         <v>2.7483983607722522E-2</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="19">
         <v>1.7460768159985561E-2</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="19">
         <v>2.2581519227340391E-2</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="19">
         <v>2.686801065728894E-2</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="19">
         <v>7.8323017438381801E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="B19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="17">
         <v>13.37750594438238</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>12.6109651582442</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>14.21419571698031</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>11.44781144781145</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>13.553353216043311</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>12.294893526770901</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <v>13.57199813027578</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>15.444976233176</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>11.22530350008484</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="17">
         <v>12.627739646308299</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>12.778791535546389</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="17">
         <v>10.68983675618747</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="A20" s="70"/>
+      <c r="B20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="17">
         <v>0.34315854089172032</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>0.61456057183469459</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>0.68592764464321698</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>0.88037543134791374</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>0.30074398024050031</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>0.48528483911866538</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>0.42400850232233461</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>0.31965371748824639</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <v>0.20194320615839259</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="17">
         <v>0.47774016349987658</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <v>0.67118015701837386</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="17">
         <v>0.6936250591005525</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="A21" s="70"/>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="17">
         <v>3.455409117811135</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>3.521385315403069</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>3.356849059233296</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>3.7780182780182781</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>3.4581878843603202</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>3.8410444732625622</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="17">
         <v>3.4423547526739799</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>3.283540005925897</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="17">
         <v>3.598201983741343</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="17">
         <v>3.496562868474149</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <v>3.445852361664441</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="17">
         <v>3.500263296471827</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="A22" s="70"/>
+      <c r="B22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="17">
         <v>2.4389117164180549E-2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>3.45109381736661E-2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>2.537190952464102E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>7.2525079622631841E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>3.427511296141679E-2</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>4.681469623995644E-2</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="17">
         <v>2.276637625746868E-2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>2.28919566788446E-2</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="17">
         <v>1.8287359556537281E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="17">
         <v>2.5951018318809169E-2</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>4.9491544997647421E-2</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="17">
         <v>6.0617687189408617E-2</v>
       </c>
     </row>
@@ -3407,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454CC701-BACC-4913-87C9-0BDD856A8B65}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3511,164 +4582,273 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAEFFDD-0801-450D-8645-7A123AF54D96}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="7">
-        <f>0.39/(1/10^4)</f>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="7">
-        <f>0.39/(1/10^6)</f>
-        <v>390000.00000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <f>0.736/(1/10)</f>
         <v>7.3599999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="7">
         <f>0.739/(1/10)</f>
         <v>7.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="7">
-        <f>0.169/(1/51)</f>
-        <v>8.6190000000000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7">
+        <f>0.1371/(1/50)</f>
+        <v>6.8549999999999995</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7">
-        <f>0.184/(1/51)</f>
-        <v>9.3840000000000003</v>
+      <c r="E9" s="7">
+        <f>0.1578/(1/50)</f>
+        <v>7.89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>